--- a/PCB/SMT_reference.xlsx
+++ b/PCB/SMT_reference.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAL9000/Dropbox (MIT)/Desktop Muon Detector/Paper/Version2/Desktop-Muon-Detector-master/PCB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="0" windowWidth="15300" windowHeight="18740" tabRatio="500"/>
+    <workbookView xWindow="8680" yWindow="600" windowWidth="24920" windowHeight="18740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Main PCB</t>
   </si>
@@ -78,9 +83,6 @@
     <t>311-1.00KCRCT-ND</t>
   </si>
   <si>
-    <t>311-24.9KCRCT-ND</t>
-  </si>
-  <si>
     <t>311-100KCRCT-ND</t>
   </si>
   <si>
@@ -111,9 +113,6 @@
     <t>CER  50V Y5V 0805</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -220,6 +219,12 @@
   </si>
   <si>
     <t>CER 35V 0805</t>
+  </si>
+  <si>
+    <t>1k or 4.7 k</t>
+  </si>
+  <si>
+    <t>311-57.6KCRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -282,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,18 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -375,15 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -402,30 +386,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -436,6 +398,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -764,20 +731,20 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23">
+    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -799,7 +766,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="18">
+    <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -808,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -829,21 +796,21 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -857,21 +824,21 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -885,23 +852,21 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="16"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -913,22 +878,21 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -941,21 +905,21 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -969,21 +933,21 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -997,21 +961,21 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1025,13 +989,13 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1045,21 +1009,21 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="E11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1073,21 +1037,21 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1101,21 +1065,21 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1129,22 +1093,21 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1157,21 +1120,13 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1185,13 +1140,13 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1205,19 +1160,19 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15" t="s">
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1231,19 +1186,19 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1257,13 +1212,13 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1277,13 +1232,13 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1297,21 +1252,21 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1325,21 +1280,21 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1353,19 +1308,19 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15" t="s">
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1379,21 +1334,21 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="22"/>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1407,13 +1362,13 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1427,19 +1382,19 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1453,7 +1408,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1473,17 +1428,17 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="23">
+    <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="18">
+    <row r="29" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
         <v>1</v>
@@ -1492,166 +1447,166 @@
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <v>49.9</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>49.9</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <v>49.9</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="C34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="C35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="C36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
+      <c r="B38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8"/>
-      <c r="B40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="F40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1659,7 +1614,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1667,7 +1622,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1675,7 +1630,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1686,39 +1641,33 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E4" r:id="rId2" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E17" r:id="rId7"/>
-    <hyperlink ref="E18" r:id="rId8"/>
-    <hyperlink ref="E14" r:id="rId9" display="311-1136-1-ND"/>
-    <hyperlink ref="E21" r:id="rId10" display="LT6201CS8#PBF-ND"/>
-    <hyperlink ref="E22" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E9" r:id="rId13"/>
-    <hyperlink ref="E11" r:id="rId14"/>
-    <hyperlink ref="E26" r:id="rId15"/>
-    <hyperlink ref="E24" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E34" r:id="rId18"/>
-    <hyperlink ref="E35" r:id="rId19"/>
-    <hyperlink ref="E36" r:id="rId20"/>
-    <hyperlink ref="E31" r:id="rId21" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E32" r:id="rId22" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E38" r:id="rId23"/>
-    <hyperlink ref="E8" r:id="rId24" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E12" r:id="rId25"/>
-    <hyperlink ref="E15" r:id="rId26"/>
+    <hyperlink ref="E13" r:id="rId1"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4" display="LT6201CS8#PBF-ND"/>
+    <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E26" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="E30" r:id="rId10" display="311-1.0KARCT-ND"/>
+    <hyperlink ref="E34" r:id="rId11"/>
+    <hyperlink ref="E35" r:id="rId12"/>
+    <hyperlink ref="E36" r:id="rId13"/>
+    <hyperlink ref="E31" r:id="rId14" display="311-1.0KARCT-ND"/>
+    <hyperlink ref="E32" r:id="rId15" display="311-1.0KARCT-ND"/>
+    <hyperlink ref="E38" r:id="rId16"/>
+    <hyperlink ref="E12" r:id="rId17"/>
+    <hyperlink ref="E14" r:id="rId18" display="311-1136-1-ND"/>
+    <hyperlink ref="E3" r:id="rId19"/>
+    <hyperlink ref="E4" r:id="rId20"/>
+    <hyperlink ref="E5" r:id="rId21"/>
+    <hyperlink ref="E6" r:id="rId22"/>
+    <hyperlink ref="E7" r:id="rId23"/>
+    <hyperlink ref="E9" r:id="rId24"/>
+    <hyperlink ref="E8" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/PCB/SMT_reference.xlsx
+++ b/PCB/SMT_reference.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAL9000/Dropbox (MIT)/Desktop Muon Detector/Paper/Version2/Desktop-Muon-Detector-master/PCB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAL9000/Dropbox (MIT)/DesktopMuonDetector/Paper/Version 3/supplementary_material/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="600" windowWidth="24920" windowHeight="18740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="26720" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>Main PCB</t>
   </si>
@@ -146,12 +146,6 @@
     <t>R7</t>
   </si>
   <si>
-    <t>311-10.0KCRCT-ND</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>CON1</t>
   </si>
   <si>
@@ -188,30 +182,15 @@
     <t>SiPM MicroFC-60035-SMT</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>No Stuff</t>
-  </si>
-  <si>
-    <t>Ignore</t>
-  </si>
-  <si>
     <t>10 nF</t>
   </si>
   <si>
-    <t>We are using SLOW output</t>
-  </si>
-  <si>
     <t>16 MHz Arduino Nano</t>
   </si>
   <si>
     <t>Dual Op-Amp LT6201CS8</t>
   </si>
   <si>
-    <t>57.6k</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -221,17 +200,65 @@
     <t>CER 35V 0805</t>
   </si>
   <si>
-    <t>1k or 4.7 k</t>
-  </si>
-  <si>
-    <t>311-57.6KCRCT-ND</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>Reset switch</t>
+  </si>
+  <si>
+    <t>311-100CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-49.9CRCT-ND</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>Check Ebay</t>
+  </si>
+  <si>
+    <t>Digikey Part: 490-9964-1-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 311-100CRCT-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 311-1.00KCRCT-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 311-100KCRCT-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 1276-1007-1-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 399-1147-1-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 311-49.9CRCT-ND</t>
+  </si>
+  <si>
+    <t>Digikey Part: 311-1136-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,27 +283,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -286,8 +294,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,7 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,50 +389,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -728,32 +778,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -766,24 +816,22 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -797,21 +845,23 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="16">
+        <v>100</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -824,49 +874,54 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="F4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -878,49 +933,54 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="F6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -933,50 +993,54 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="F8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -989,42 +1053,44 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1037,50 +1103,54 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="C12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1093,41 +1163,44 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="E14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1140,40 +1213,50 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1186,40 +1269,42 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1232,42 +1317,52 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1280,48 +1375,52 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1334,42 +1433,42 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="14" t="s">
+    <row r="24" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1382,40 +1481,40 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="14" t="s">
+    <row r="26" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1429,192 +1528,220 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="16">
+        <v>49.9</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="9">
-        <v>49.9</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9">
-        <v>49.9</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="9">
-        <v>49.9</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1622,7 +1749,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1630,42 +1757,37 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E13" r:id="rId1"/>
-    <hyperlink ref="E17" r:id="rId2"/>
-    <hyperlink ref="E18" r:id="rId3"/>
-    <hyperlink ref="E21" r:id="rId4" display="LT6201CS8#PBF-ND"/>
-    <hyperlink ref="E22" r:id="rId5"/>
-    <hyperlink ref="E23" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E26" r:id="rId8"/>
-    <hyperlink ref="E24" r:id="rId9"/>
-    <hyperlink ref="E30" r:id="rId10" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E34" r:id="rId11"/>
-    <hyperlink ref="E35" r:id="rId12"/>
-    <hyperlink ref="E36" r:id="rId13"/>
-    <hyperlink ref="E31" r:id="rId14" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E32" r:id="rId15" display="311-1.0KARCT-ND"/>
-    <hyperlink ref="E38" r:id="rId16"/>
-    <hyperlink ref="E12" r:id="rId17"/>
-    <hyperlink ref="E14" r:id="rId18" display="311-1136-1-ND"/>
-    <hyperlink ref="E3" r:id="rId19"/>
-    <hyperlink ref="E4" r:id="rId20"/>
-    <hyperlink ref="E5" r:id="rId21"/>
-    <hyperlink ref="E6" r:id="rId22"/>
-    <hyperlink ref="E7" r:id="rId23"/>
-    <hyperlink ref="E9" r:id="rId24"/>
-    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId2" display="LT6201CS8#PBF-ND"/>
+    <hyperlink ref="E21" r:id="rId3"/>
+    <hyperlink ref="E22" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E26" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="E34" r:id="rId8"/>
+    <hyperlink ref="E35" r:id="rId9"/>
+    <hyperlink ref="E37" r:id="rId10"/>
+    <hyperlink ref="E39" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13" display="311-1136-1-ND"/>
+    <hyperlink ref="E36" r:id="rId14"/>
+    <hyperlink ref="E24" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E5" r:id="rId18"/>
+    <hyperlink ref="E8" r:id="rId19"/>
+    <hyperlink ref="E9" r:id="rId20"/>
+    <hyperlink ref="E6" r:id="rId21"/>
+    <hyperlink ref="E30" r:id="rId22"/>
+    <hyperlink ref="E31" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E18" r:id="rId25"/>
+    <hyperlink ref="E16" r:id="rId26"/>
+    <hyperlink ref="E17" r:id="rId27"/>
+    <hyperlink ref="E7" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
